--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E366BCA1-1F0B-438E-968B-B52E8CDB17B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E76913-F341-45F7-881F-AF1DB384ACE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Criterios</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Incluye Manejo de Imagenes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,18 +548,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1082,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,11 +1124,11 @@
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C4" s="9">
         <f>IF(B4="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="13"/>
     </row>
@@ -1146,11 +1137,11 @@
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C5" s="9">
         <f>IF(B5="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="13"/>
     </row>
@@ -1159,11 +1150,11 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C6" s="9">
         <f>IF(B6="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="13"/>
     </row>
@@ -1172,11 +1163,11 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C7" s="9">
         <f>IF(B7="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -1185,11 +1176,11 @@
         <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C8" s="9">
         <f>IF(B8="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="13"/>
     </row>
@@ -1207,11 +1198,11 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C10" s="9">
         <f>IF(B10="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -1220,11 +1211,11 @@
         <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9">
         <f>IF(B11="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -1233,11 +1224,11 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9">
         <f>IF(B12="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="13"/>
     </row>
@@ -1246,11 +1237,11 @@
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9">
         <f>IF(B13="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -1259,11 +1250,11 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9">
         <f>IF(B14="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="13"/>
     </row>
@@ -1284,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="9">
-        <f>IF(B16="Si", 0.1,0)</f>
+        <f t="shared" ref="C16:C21" si="0">IF(B16="Si", 0.1,0)</f>
         <v>0.1</v>
       </c>
       <c r="E16" s="13"/>
@@ -1294,11 +1285,11 @@
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C17" s="9">
-        <f>IF(B17="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E17" s="13"/>
     </row>
@@ -1310,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="9">
-        <f>IF(B18="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E18" s="13"/>
@@ -1323,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="9">
-        <f>IF(B19="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E19" s="13"/>
@@ -1336,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="9">
-        <f>IF(B20="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E20" s="13"/>
@@ -1349,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="9">
-        <f>IF(B21="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E21" s="13"/>
@@ -1371,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9">
-        <f>IF(B23="Si", 0.1,0)</f>
+        <f t="shared" ref="C23:C28" si="1">IF(B23="Si", 0.1,0)</f>
         <v>0.1</v>
       </c>
       <c r="E23" s="13"/>
@@ -1384,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="9">
-        <f>IF(B24="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E24" s="13"/>
@@ -1397,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="9">
-        <f>IF(B25="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E25" s="13"/>
@@ -1410,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="9">
-        <f>IF(B26="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E26" s="13"/>
@@ -1423,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="9">
-        <f>IF(B27="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E27" s="13"/>
@@ -1436,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="9">
-        <f>IF(B28="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E28" s="13"/>
@@ -1458,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="9">
-        <f>IF(B30="Si", 0.1,0)</f>
+        <f t="shared" ref="C30:C35" si="2">IF(B30="Si", 0.1,0)</f>
         <v>0.1</v>
       </c>
       <c r="E30" s="13"/>
@@ -1471,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="9">
-        <f>IF(B31="Si", 0.1,0)</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="E31" s="13"/>
@@ -1484,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="9">
-        <f>IF(B32="Si", 0.1,0)</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="E32" s="13"/>
@@ -1497,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="9">
-        <f>IF(B33="Si", 0.1,0)</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="E33" s="13"/>
@@ -1510,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="9">
-        <f>IF(B34="Si", 0.1,0)</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="E34" s="13"/>
@@ -1523,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="9">
-        <f>IF(B35="Si", 0.1,0)</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="E35" s="13"/>
@@ -1593,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" ref="C41:C44" si="0">IF(B41="Si", 0.4,0)</f>
+        <f t="shared" ref="C41:C44" si="3">IF(B41="Si", 0.4,0)</f>
         <v>0.4</v>
       </c>
       <c r="E41" s="13"/>
@@ -1606,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E42" s="13"/>
@@ -1616,11 +1607,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E43" s="13"/>
     </row>
@@ -1632,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E44" s="13"/>
@@ -1644,7 +1635,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>5.0000000000000018</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1672,10 +1663,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 B40" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B38 B5:B8 B10:B14 B41:B44 B16:B21 B23:B28 B30:B35" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B38 B10:B14 B30:B35 B41:B44 B16:B21 B23:B28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E366BCA1-1F0B-438E-968B-B52E8CDB17B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B331CB-39C8-4A18-9407-C6A2E3CA2ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Criterios</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Incluye Manejo de Imagenes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,18 +548,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1082,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,11 +1198,11 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C10" s="9">
         <f>IF(B10="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -1220,11 +1211,11 @@
         <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9">
         <f>IF(B11="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -1233,11 +1224,11 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9">
         <f>IF(B12="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="13"/>
     </row>
@@ -1246,11 +1237,11 @@
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9">
         <f>IF(B13="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -1259,11 +1250,11 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9">
         <f>IF(B14="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="13"/>
     </row>
@@ -1284,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="9">
-        <f>IF(B16="Si", 0.1,0)</f>
+        <f t="shared" ref="C16:C21" si="0">IF(B16="Si", 0.1,0)</f>
         <v>0.1</v>
       </c>
       <c r="E16" s="13"/>
@@ -1294,11 +1285,11 @@
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C17" s="9">
-        <f>IF(B17="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E17" s="13"/>
     </row>
@@ -1310,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="9">
-        <f>IF(B18="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E18" s="13"/>
@@ -1320,11 +1311,11 @@
         <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9">
-        <f>IF(B19="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E19" s="13"/>
     </row>
@@ -1336,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="9">
-        <f>IF(B20="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E20" s="13"/>
@@ -1349,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="9">
-        <f>IF(B21="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E21" s="13"/>
@@ -1371,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9">
-        <f>IF(B23="Si", 0.1,0)</f>
+        <f t="shared" ref="C23:C28" si="1">IF(B23="Si", 0.1,0)</f>
         <v>0.1</v>
       </c>
       <c r="E23" s="13"/>
@@ -1384,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="9">
-        <f>IF(B24="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E24" s="13"/>
@@ -1397,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="9">
-        <f>IF(B25="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E25" s="13"/>
@@ -1410,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="9">
-        <f>IF(B26="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E26" s="13"/>
@@ -1423,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="9">
-        <f>IF(B27="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E27" s="13"/>
@@ -1433,11 +1424,11 @@
         <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C28" s="9">
-        <f>IF(B28="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E28" s="13"/>
     </row>
@@ -1455,11 +1446,11 @@
         <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C30" s="9">
-        <f>IF(B30="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" ref="C30:C35" si="2">IF(B30="Si", 0.1,0)</f>
+        <v>0</v>
       </c>
       <c r="E30" s="13"/>
     </row>
@@ -1468,11 +1459,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C31" s="9">
-        <f>IF(B31="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E31" s="13"/>
     </row>
@@ -1481,11 +1472,11 @@
         <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C32" s="9">
-        <f>IF(B32="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E32" s="13"/>
     </row>
@@ -1494,11 +1485,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C33" s="9">
-        <f>IF(B33="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E33" s="13"/>
     </row>
@@ -1507,11 +1498,11 @@
         <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C34" s="9">
-        <f>IF(B34="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -1523,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="9">
-        <f>IF(B35="Si", 0.1,0)</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="E35" s="13"/>
@@ -1577,11 +1568,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C40" s="9">
-        <f>IF(B40="Si", 0.4,0)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E40" s="13"/>
     </row>
@@ -1590,11 +1580,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" ref="C41:C44" si="0">IF(B41="Si", 0.4,0)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E41" s="13"/>
     </row>
@@ -1606,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C41:C44" si="3">IF(B42="Si", 0.4,0)</f>
         <v>0.4</v>
       </c>
       <c r="E42" s="13"/>
@@ -1616,11 +1605,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E43" s="13"/>
     </row>
@@ -1632,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E44" s="13"/>
@@ -1644,7 +1633,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>5.0000000000000018</v>
+        <v>3.1</v>
       </c>
       <c r="D45" s="3"/>
     </row>

--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B331CB-39C8-4A18-9407-C6A2E3CA2ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EA33D5-A11B-4C5D-9786-8938C59B1A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,11 +1250,11 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C14" s="9">
         <f>IF(B14="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="13"/>
     </row>
@@ -1311,11 +1311,11 @@
         <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E19" s="13"/>
     </row>
@@ -1424,11 +1424,11 @@
         <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="13"/>
     </row>
@@ -1446,11 +1446,11 @@
         <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" ref="C30:C35" si="2">IF(B30="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E30" s="13"/>
     </row>
@@ -1459,11 +1459,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C31" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E31" s="13"/>
     </row>
@@ -1472,11 +1472,11 @@
         <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C32" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="13"/>
     </row>
@@ -1485,11 +1485,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C33" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E33" s="13"/>
     </row>
@@ -1498,11 +1498,11 @@
         <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -1511,11 +1511,11 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C35" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="13"/>
     </row>
@@ -1546,11 +1546,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C38" s="9">
         <f>IF(B38="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="13"/>
     </row>
@@ -1568,10 +1568,11 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C40" s="9">
-        <v>0.3</v>
+        <f>IF(B40="Si", 0.4,0)</f>
+        <v>0.4</v>
       </c>
       <c r="E40" s="13"/>
     </row>
@@ -1580,10 +1581,11 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C41" s="9">
-        <v>0.3</v>
+        <f t="shared" ref="C41:C44" si="3">IF(B41="Si", 0.4,0)</f>
+        <v>0.4</v>
       </c>
       <c r="E41" s="13"/>
     </row>
@@ -1595,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" ref="C41:C44" si="3">IF(B42="Si", 0.4,0)</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E42" s="13"/>
@@ -1605,11 +1607,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C43" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E43" s="13"/>
     </row>
@@ -1633,7 +1635,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>3.1</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1652,7 +1654,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B40:B44 B3:B38">
+  <conditionalFormatting sqref="B3:B38 B40:B44">
     <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>

--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B331CB-39C8-4A18-9407-C6A2E3CA2ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67ED0AE-B5E7-4813-B7A9-C9B3E2452D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,11 +1198,11 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9">
         <f>IF(B10="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -1211,11 +1211,11 @@
         <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9">
         <f>IF(B11="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -1237,11 +1237,11 @@
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C13" s="9">
         <f>IF(B13="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -1250,11 +1250,11 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C14" s="9">
         <f>IF(B14="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="13"/>
     </row>
@@ -1311,11 +1311,11 @@
         <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E19" s="13"/>
     </row>
@@ -1385,11 +1385,11 @@
         <v>33</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13"/>
     </row>
@@ -1398,11 +1398,11 @@
         <v>32</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="13"/>
     </row>
@@ -1411,11 +1411,11 @@
         <v>34</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="13"/>
     </row>
@@ -1511,11 +1511,11 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C35" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="13"/>
     </row>
@@ -1533,11 +1533,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C37" s="9">
         <f>IF(B37="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="13"/>
     </row>
@@ -1546,11 +1546,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C38" s="9">
         <f>IF(B38="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="13"/>
     </row>
@@ -1571,7 +1571,8 @@
         <v>45</v>
       </c>
       <c r="C40" s="9">
-        <v>0.3</v>
+        <f t="shared" ref="C40:C44" si="3">IF(B40="Si", 0.4,0)</f>
+        <v>0</v>
       </c>
       <c r="E40" s="13"/>
     </row>
@@ -1592,11 +1593,11 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" ref="C41:C44" si="3">IF(B42="Si", 0.4,0)</f>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E42" s="13"/>
     </row>
@@ -1618,11 +1619,11 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C44" s="9">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E44" s="13"/>
     </row>
@@ -1633,7 +1634,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>3.1</v>
+        <v>1.9000000000000004</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1661,10 +1662,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40 B10:B13 B17 B35 B38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B38 B5:B8 B10:B14 B41:B44 B16:B21 B23:B28 B30:B35" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B5:B8 B18:B21 B41:B44 B14 B30:B34 B16 B23:B28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E366BCA1-1F0B-438E-968B-B52E8CDB17B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1E5C6-96DE-4D1E-90C3-3AD4B78C6D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Criterios</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Incluye Manejo de Imagenes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,18 +548,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1082,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,11 +1163,11 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C7" s="9">
         <f>IF(B7="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -1207,7 +1198,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9">
         <f>IF(B10="Si", 0.1,0)</f>
@@ -1220,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9">
         <f>IF(B11="Si", 0.1,0)</f>
@@ -1233,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="9">
         <f>IF(B12="Si", 0.1,0)</f>
@@ -1246,11 +1237,11 @@
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9">
         <f>IF(B13="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -1284,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="9">
-        <f>IF(B16="Si", 0.1,0)</f>
+        <f t="shared" ref="C16:C21" si="0">IF(B16="Si", 0.1,0)</f>
         <v>0.1</v>
       </c>
       <c r="E16" s="13"/>
@@ -1294,10 +1285,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" s="9">
-        <f>IF(B17="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E17" s="13"/>
@@ -1310,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="9">
-        <f>IF(B18="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E18" s="13"/>
@@ -1320,11 +1311,11 @@
         <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9">
-        <f>IF(B19="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E19" s="13"/>
     </row>
@@ -1336,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="9">
-        <f>IF(B20="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E20" s="13"/>
@@ -1349,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="9">
-        <f>IF(B21="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E21" s="13"/>
@@ -1371,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9">
-        <f>IF(B23="Si", 0.1,0)</f>
+        <f t="shared" ref="C23:C28" si="1">IF(B23="Si", 0.1,0)</f>
         <v>0.1</v>
       </c>
       <c r="E23" s="13"/>
@@ -1381,11 +1372,11 @@
         <v>31</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C24" s="9">
-        <f>IF(B24="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E24" s="13"/>
     </row>
@@ -1394,11 +1385,11 @@
         <v>33</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>IF(B25="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E25" s="13"/>
     </row>
@@ -1410,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="9">
-        <f>IF(B26="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E26" s="13"/>
@@ -1423,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="9">
-        <f>IF(B27="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E27" s="13"/>
@@ -1436,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="9">
-        <f>IF(B28="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E28" s="13"/>
@@ -1455,11 +1446,11 @@
         <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C30" s="9">
-        <f>IF(B30="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" ref="C30:C35" si="2">IF(B30="Si", 0.1,0)</f>
+        <v>0</v>
       </c>
       <c r="E30" s="13"/>
     </row>
@@ -1468,11 +1459,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C31" s="9">
-        <f>IF(B31="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E31" s="13"/>
     </row>
@@ -1481,11 +1472,11 @@
         <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C32" s="9">
-        <f>IF(B32="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E32" s="13"/>
     </row>
@@ -1494,11 +1485,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C33" s="9">
-        <f>IF(B33="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E33" s="13"/>
     </row>
@@ -1507,11 +1498,11 @@
         <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C34" s="9">
-        <f>IF(B34="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -1520,11 +1511,11 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C35" s="9">
-        <f>IF(B35="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E35" s="13"/>
     </row>
@@ -1555,11 +1546,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C38" s="9">
         <f>IF(B38="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="13"/>
     </row>
@@ -1577,11 +1568,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C40" s="9">
-        <f>IF(B40="Si", 0.4,0)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E40" s="13"/>
     </row>
@@ -1590,11 +1580,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" ref="C41:C44" si="0">IF(B41="Si", 0.4,0)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E41" s="13"/>
     </row>
@@ -1606,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C42:C44" si="3">IF(B42="Si", 0.4,0)</f>
         <v>0.4</v>
       </c>
       <c r="E42" s="13"/>
@@ -1616,11 +1605,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E43" s="13"/>
     </row>
@@ -1632,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E44" s="13"/>
@@ -1644,7 +1633,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>5.0000000000000018</v>
+        <v>3.2</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1663,7 +1652,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B40:B44 B3:B38">
+  <conditionalFormatting sqref="B3:B38 B40:B44">
     <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1672,10 +1661,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40 B10:B13 B17 B38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B38 B5:B8 B10:B14 B41:B44 B16:B21 B23:B28 B30:B35" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B5:B8 B18:B21 B41:B44 B14 B23:B28 B16 B30:B35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E366BCA1-1F0B-438E-968B-B52E8CDB17B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4E7296-2EA9-4DDD-9E92-93E87DDF0AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Criterios</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Incluye Manejo de Imagenes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,18 +548,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1082,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,11 +1163,11 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C7" s="9">
         <f>IF(B7="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -1207,11 +1198,11 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C10" s="9">
         <f>IF(B10="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -1220,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9">
         <f>IF(B11="Si", 0.1,0)</f>
@@ -1233,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="9">
         <f>IF(B12="Si", 0.1,0)</f>
@@ -1246,11 +1237,11 @@
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9">
         <f>IF(B13="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -1284,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="9">
-        <f>IF(B16="Si", 0.1,0)</f>
+        <f t="shared" ref="C16:C21" si="0">IF(B16="Si", 0.1,0)</f>
         <v>0.1</v>
       </c>
       <c r="E16" s="13"/>
@@ -1294,11 +1285,11 @@
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C17" s="9">
-        <f>IF(B17="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E17" s="13"/>
     </row>
@@ -1310,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="9">
-        <f>IF(B18="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E18" s="13"/>
@@ -1320,11 +1311,11 @@
         <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9">
-        <f>IF(B19="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E19" s="13"/>
     </row>
@@ -1336,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="9">
-        <f>IF(B20="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E20" s="13"/>
@@ -1349,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="9">
-        <f>IF(B21="Si", 0.1,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E21" s="13"/>
@@ -1371,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9">
-        <f>IF(B23="Si", 0.1,0)</f>
+        <f t="shared" ref="C23:C28" si="1">IF(B23="Si", 0.1,0)</f>
         <v>0.1</v>
       </c>
       <c r="E23" s="13"/>
@@ -1381,11 +1372,11 @@
         <v>31</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C24" s="9">
-        <f>IF(B24="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E24" s="13"/>
     </row>
@@ -1394,11 +1385,11 @@
         <v>33</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>IF(B25="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E25" s="13"/>
     </row>
@@ -1410,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="9">
-        <f>IF(B26="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E26" s="13"/>
@@ -1423,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="9">
-        <f>IF(B27="Si", 0.1,0)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E27" s="13"/>
@@ -1433,11 +1424,11 @@
         <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C28" s="9">
-        <f>IF(B28="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E28" s="13"/>
     </row>
@@ -1455,11 +1446,11 @@
         <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C30" s="9">
-        <f>IF(B30="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" ref="C30:C35" si="2">IF(B30="Si", 0.1,0)</f>
+        <v>0</v>
       </c>
       <c r="E30" s="13"/>
     </row>
@@ -1468,11 +1459,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C31" s="9">
-        <f>IF(B31="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E31" s="13"/>
     </row>
@@ -1481,11 +1472,11 @@
         <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C32" s="9">
-        <f>IF(B32="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E32" s="13"/>
     </row>
@@ -1494,11 +1485,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C33" s="9">
-        <f>IF(B33="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E33" s="13"/>
     </row>
@@ -1507,11 +1498,11 @@
         <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C34" s="9">
-        <f>IF(B34="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -1520,11 +1511,11 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C35" s="9">
-        <f>IF(B35="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E35" s="13"/>
     </row>
@@ -1555,11 +1546,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C38" s="9">
         <f>IF(B38="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="13"/>
     </row>
@@ -1577,11 +1568,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C40" s="9">
-        <f>IF(B40="Si", 0.4,0)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E40" s="13"/>
     </row>
@@ -1593,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" ref="C41:C44" si="0">IF(B41="Si", 0.4,0)</f>
+        <f t="shared" ref="C41:C44" si="3">IF(B41="Si", 0.4,0)</f>
         <v>0.4</v>
       </c>
       <c r="E41" s="13"/>
@@ -1606,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E42" s="13"/>
@@ -1619,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E43" s="13"/>
@@ -1632,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E44" s="13"/>
@@ -1644,7 +1634,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>5.0000000000000018</v>
+        <v>3.4</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1672,10 +1662,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40 B10:B13 B17 B38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B38 B5:B8 B10:B14 B41:B44 B16:B21 B23:B28 B30:B35" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B5:B8 B18:B21 B41:B44 B14 B23:B28 B16 B30:B35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\WebDevelopment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64341B21-D592-42BF-A131-5E999EC60B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC65B6D5-28D2-4AF1-80B1-77984F123D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Criterios</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Incluye Manejo de Imagenes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,11 +1198,11 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C10" s="9">
         <f>IF(B10="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -1208,11 +1211,11 @@
         <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9">
         <f>IF(B11="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -1221,11 +1224,11 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9">
         <f>IF(B12="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="13"/>
     </row>
@@ -1234,11 +1237,11 @@
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9">
         <f>IF(B13="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -1247,11 +1250,11 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9">
         <f>IF(B14="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="13"/>
     </row>
@@ -1456,11 +1459,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C31" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="13"/>
     </row>
@@ -1495,11 +1498,11 @@
         <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -1508,11 +1511,11 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C35" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="13"/>
     </row>
@@ -1543,11 +1546,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C38" s="9">
         <f>IF(B38="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="13"/>
     </row>
@@ -1565,11 +1568,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C40" s="9">
-        <f>IF(B40="Si", 0.4,0)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E40" s="13"/>
     </row>
@@ -1604,11 +1606,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C43" s="9">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E43" s="13"/>
     </row>
@@ -1632,7 +1634,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>5.0000000000000018</v>
+        <v>3.6</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1651,7 +1653,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B40:B44 B3:B38">
+  <conditionalFormatting sqref="B3:B38 B40:B44">
     <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>

--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B331CB-39C8-4A18-9407-C6A2E3CA2ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64341B21-D592-42BF-A131-5E999EC60B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Criterios</t>
   </si>
@@ -505,9 +505,6 @@
   </si>
   <si>
     <t>Incluye Manejo de Imagenes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,11 +1195,11 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9">
         <f>IF(B10="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -1211,11 +1208,11 @@
         <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9">
         <f>IF(B11="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -1224,11 +1221,11 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C12" s="9">
         <f>IF(B12="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="13"/>
     </row>
@@ -1237,11 +1234,11 @@
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C13" s="9">
         <f>IF(B13="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -1250,11 +1247,11 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C14" s="9">
         <f>IF(B14="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="13"/>
     </row>
@@ -1285,11 +1282,11 @@
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="13"/>
     </row>
@@ -1311,11 +1308,11 @@
         <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E19" s="13"/>
     </row>
@@ -1424,11 +1421,11 @@
         <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="13"/>
     </row>
@@ -1446,11 +1443,11 @@
         <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" ref="C30:C35" si="2">IF(B30="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E30" s="13"/>
     </row>
@@ -1459,11 +1456,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C31" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E31" s="13"/>
     </row>
@@ -1472,11 +1469,11 @@
         <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C32" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="13"/>
     </row>
@@ -1485,11 +1482,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C33" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E33" s="13"/>
     </row>
@@ -1498,11 +1495,11 @@
         <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -1511,7 +1508,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C35" s="9">
         <f t="shared" si="2"/>
@@ -1546,7 +1543,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C38" s="9">
         <f>IF(B38="Si", 0.1,0)</f>
@@ -1568,10 +1565,11 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C40" s="9">
-        <v>0.3</v>
+        <f>IF(B40="Si", 0.4,0)</f>
+        <v>0.4</v>
       </c>
       <c r="E40" s="13"/>
     </row>
@@ -1580,10 +1578,11 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C41" s="9">
-        <v>0.3</v>
+        <f t="shared" ref="C41:C44" si="3">IF(B41="Si", 0.4,0)</f>
+        <v>0.4</v>
       </c>
       <c r="E41" s="13"/>
     </row>
@@ -1595,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" ref="C41:C44" si="3">IF(B42="Si", 0.4,0)</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E42" s="13"/>
@@ -1605,11 +1604,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C43" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E43" s="13"/>
     </row>
@@ -1633,7 +1632,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>3.1</v>
+        <v>5.0000000000000018</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1661,10 +1660,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40 B10:B13 B17 B35 B38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B38 B5:B8 B10:B14 B41:B44 B16:B21 B23:B28 B30:B35" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B34 B5:B8 B18:B21 B41:B44 B14 B23:B28 B16 B37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\WebDevelopment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64341B21-D592-42BF-A131-5E999EC60B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C6221D-0F18-416C-8441-00E0D25243AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Criterios</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Incluye Manejo de Imagenes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,11 +1163,11 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C7" s="9">
         <f>IF(B7="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -1234,11 +1237,11 @@
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9">
         <f>IF(B13="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -1282,11 +1285,11 @@
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="13"/>
     </row>
@@ -1308,11 +1311,11 @@
         <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="13"/>
     </row>
@@ -1443,11 +1446,11 @@
         <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" ref="C30:C35" si="2">IF(B30="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="13"/>
     </row>
@@ -1456,11 +1459,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C31" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="13"/>
     </row>
@@ -1469,11 +1472,11 @@
         <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C32" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="13"/>
     </row>
@@ -1482,11 +1485,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C33" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="13"/>
     </row>
@@ -1495,11 +1498,11 @@
         <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -1508,7 +1511,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35" s="9">
         <f t="shared" si="2"/>
@@ -1565,11 +1568,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C40" s="9">
-        <f>IF(B40="Si", 0.4,0)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E40" s="13"/>
     </row>
@@ -1604,11 +1606,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C43" s="9">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E43" s="13"/>
     </row>
@@ -1632,7 +1634,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>5.0000000000000018</v>
+        <v>3.6</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1660,10 +1662,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40 B10:B13 B17 B35 B38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40 B10:B13 B17 B38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B34 B5:B8 B18:B21 B41:B44 B14 B23:B28 B16 B37" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B5:B8 B18:B21 B41:B44 B14 B23:B28 B16 B30:B35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C6221D-0F18-416C-8441-00E0D25243AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A53C678-9A26-4A1F-A7BA-2769768F3527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Criterios</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Validacion de Usuario o Contraseña</t>
   </si>
   <si>
-    <t>Valida que la contraseña y su confirmacion coincidad</t>
-  </si>
-  <si>
     <t>Es la Primera Pagina</t>
   </si>
   <si>
@@ -507,7 +504,7 @@
     <t>Incluye Manejo de Imagenes</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Valida que la contraseña y su confirmacion coincidan</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1118,7 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -1134,7 +1131,7 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -1147,7 +1144,7 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>
@@ -1163,17 +1160,17 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C7" s="9">
         <f>IF(B7="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>3</v>
@@ -1195,7 +1192,7 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>7</v>
@@ -1208,7 +1205,7 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>7</v>
@@ -1221,7 +1218,7 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>7</v>
@@ -1234,20 +1231,20 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C13" s="9">
         <f>IF(B13="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>3</v>
@@ -1269,7 +1266,7 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>3</v>
@@ -1282,20 +1279,20 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>
@@ -1308,20 +1305,20 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>3</v>
@@ -1334,7 +1331,7 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>3</v>
@@ -1347,7 +1344,7 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="18"/>
@@ -1356,7 +1353,7 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>3</v>
@@ -1369,7 +1366,7 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>3</v>
@@ -1382,7 +1379,7 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>3</v>
@@ -1395,7 +1392,7 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>3</v>
@@ -1408,7 +1405,7 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>3</v>
@@ -1421,7 +1418,7 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>3</v>
@@ -1443,72 +1440,72 @@
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" ref="C30:C35" si="2">IF(B30="Si", 0.1,0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C31" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C32" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C33" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>3</v>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>3</v>
@@ -1543,7 +1540,7 @@
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>7</v>
@@ -1565,32 +1562,33 @@
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C40" s="9">
-        <v>0.3</v>
+        <f t="shared" ref="C40:C44" si="3">IF(B40="Si", 0.4,0)</f>
+        <v>0.4</v>
       </c>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" ref="C41:C44" si="3">IF(B41="Si", 0.4,0)</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>3</v>
@@ -1603,20 +1601,20 @@
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C43" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>3</v>
@@ -1634,7 +1632,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>3.6</v>
+        <v>5.0000000000000018</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1653,7 +1651,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B40:B44 B3:B38">
+  <conditionalFormatting sqref="B3:B38 B40:B44">
     <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1662,10 +1660,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40 B10:B13 B17 B38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B12 B38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B5:B8 B18:B21 B41:B44 B14 B23:B28 B16 B30:B35" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B16:B21 B30:B35 B13:B14 B23:B28 B5:B8 B40:B44" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Proyecto/CheckList.xlsx
+++ b/Proyecto/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\WebDevelopment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\WebDevelopment\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64341B21-D592-42BF-A131-5E999EC60B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C793733D-527E-41BA-8A11-377CB601D975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Criterios</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Validacion de Usuario o Contraseña</t>
   </si>
   <si>
-    <t>Valida que la contraseña y su confirmacion coincidad</t>
-  </si>
-  <si>
     <t>Es la Primera Pagina</t>
   </si>
   <si>
@@ -505,6 +502,12 @@
   </si>
   <si>
     <t>Incluye Manejo de Imagenes</t>
+  </si>
+  <si>
+    <t>Valida que la contraseña y su confirmacion coincidan</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,7 +1121,7 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -1131,7 +1134,7 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>
@@ -1170,7 +1173,7 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>3</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>7</v>
@@ -1205,7 +1208,7 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>7</v>
@@ -1218,33 +1221,33 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9">
         <f>IF(B12="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9">
         <f>IF(B13="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>3</v>
@@ -1266,7 +1269,7 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>3</v>
@@ -1279,20 +1282,20 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>3</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>3</v>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>3</v>
@@ -1344,7 +1347,7 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="18"/>
@@ -1353,7 +1356,7 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>3</v>
@@ -1366,7 +1369,7 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>3</v>
@@ -1379,20 +1382,20 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>3</v>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>3</v>
@@ -1418,14 +1421,14 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="13"/>
     </row>
@@ -1440,7 +1443,7 @@
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>3</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>3</v>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>3</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>3</v>
@@ -1492,27 +1495,27 @@
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C35" s="9">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="13"/>
     </row>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>3</v>
@@ -1540,14 +1543,14 @@
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C38" s="9">
         <f>IF(B38="Si", 0.1,0)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="13"/>
     </row>
@@ -1562,59 +1565,58 @@
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C40" s="9">
-        <f>IF(B40="Si", 0.4,0)</f>
+        <f t="shared" ref="C40:C44" si="3">IF(B40="Si", 0.4,0)</f>
         <v>0.4</v>
       </c>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" ref="C41:C44" si="3">IF(B41="Si", 0.4,0)</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C43" s="9">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>3</v>
@@ -1632,7 +1634,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="7">
         <f>SUM(C2:C44)</f>
-        <v>5.0000000000000018</v>
+        <v>3.7</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1651,7 +1653,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B40:B44 B3:B38">
+  <conditionalFormatting sqref="B3:B38 B40:B44">
     <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1660,10 +1662,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B40 B10:B13 B17 B35 B38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B12 B38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B34 B5:B8 B18:B21 B41:B44 B14 B23:B28 B16 B37" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B16:B21 B30:B35 B13:B14 B23:B28 B5:B8 B40:B44" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SI,No"</formula1>
     </dataValidation>
   </dataValidations>
